--- a/IPCE.xlsx
+++ b/IPCE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>1h</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>5min</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>3h</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>1h - пробитый</t>
+          <t>Photocurrent</t>
         </is>
       </c>
     </row>
@@ -465,19 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8145287605677392</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.40656320931462</v>
-      </c>
-      <c r="E2" t="n">
-        <v>28.95478374863521</v>
-      </c>
-      <c r="F2" t="n">
-        <v>36.25906650917012</v>
+        <v>3.625071445105827e-09</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C3" t="n">
-        <v>6.378527100180641</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.01401994032047</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11.50185341943092</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20.70929172625924</v>
+        <v>7.659278712247477e-08</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C4" t="n">
-        <v>7.456526525174912</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.40048530189045</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.36633455203284</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16.84111833197828</v>
+        <v>1.285958867517241e-07</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="C5" t="n">
-        <v>8.11637546351348</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.91450055570289</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.857729300082624</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12.66636645686206</v>
+        <v>2.269456803058959e-09</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C6" t="n">
-        <v>9.354361969330855</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03888976828727995</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.298515765224193</v>
-      </c>
-      <c r="F6" t="n">
-        <v>12.29007532593235</v>
+        <v>7.529423229105764e-08</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C7" t="n">
-        <v>10.15002037227068</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.883356520209938</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.418808847448021</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10.94880975534942</v>
+        <v>2.089626213325479e-07</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C8" t="n">
-        <v>12.51611723708229</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.2707413169494662</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.937585246761422</v>
-      </c>
-      <c r="F8" t="n">
-        <v>11.11653236489722</v>
+        <v>2.271077667114873e-07</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C9" t="n">
-        <v>14.42532079699892</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.899840613942764</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.198732247200174</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10.23462524974856</v>
+        <v>2.43408914591376e-07</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="C10" t="n">
-        <v>5.35493093146056</v>
-      </c>
-      <c r="D10" t="n">
-        <v>13.98250123597755</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.625034238012242</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10.55089715821386</v>
+        <v>2.584627079182e-07</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="C11" t="n">
-        <v>15.59944428224966</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11.9693514141837</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.4812527175987</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10.53316070452591</v>
+        <v>2.711379267401508e-07</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C12" t="n">
-        <v>15.28543653436505</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10.89567382580088</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.763544268135147</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10.00221026004668</v>
+        <v>2.82081477453908e-07</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C13" t="n">
-        <v>14.53467015888655</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9.943881027087173</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5.599988373010595</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10.8933539625692</v>
+        <v>2.949011208137198e-07</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="C14" t="n">
-        <v>14.23969507103149</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8.713836655915852</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.866355671879318</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9.811195681211759</v>
+        <v>3.090171688882608e-07</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="C15" t="n">
-        <v>14.64531539209438</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7.490955729859992</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.315140307516141</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10.10808031340154</v>
+        <v>3.203274817325223e-07</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="C16" t="n">
-        <v>11.69315149147637</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6.066810942638993</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6.933184494245355</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8.484734758752399</v>
+        <v>3.167797442865489e-07</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C17" t="n">
-        <v>10.64088651326967</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5.052236608703715</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.015278709367596</v>
-      </c>
-      <c r="F17" t="n">
-        <v>8.379748988039161</v>
+        <v>3.360079213319747e-07</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="C18" t="n">
-        <v>8.910835112321205</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.846546176633754</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6.879246184595646</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7.407421420548591</v>
+        <v>2.356744399872463e-09</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="C19" t="n">
-        <v>7.145970268620469</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.022866130748326</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5.880651086174454</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5.799654695053253</v>
+        <v>2.455929323271783e-11</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C20" t="n">
-        <v>5.331371495414964</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.262980650459127</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5.357729102915794</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4.685180249227336</v>
+        <v>2.916884524379183e-10</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C21" t="n">
-        <v>4.444503681071729</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.785976308228095</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.344826290712709</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3.731238423149885</v>
+        <v>6.178753094375064e-11</v>
       </c>
     </row>
     <row r="22">
@@ -865,19 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C22" t="n">
-        <v>3.161629268879522</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.350046194563929</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.843200462007264</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.97344330192457</v>
+        <v>3.087793987239169e-11</v>
       </c>
     </row>
     <row r="23">
@@ -885,19 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C23" t="n">
-        <v>2.242094978513505</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.08482099702219</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3.225793662355268</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2.370665171929114</v>
+        <v>2.563243954638589e-11</v>
       </c>
     </row>
     <row r="24">
@@ -905,19 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="C24" t="n">
-        <v>1.676925948430386</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.9397136413804302</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2.940167997250971</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2.129365118400735</v>
+        <v>1.931560768332925e-11</v>
       </c>
     </row>
     <row r="25">
@@ -925,19 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="C25" t="n">
-        <v>1.288306030702569</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.8021342342114197</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2.480717336586844</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.949177742019168</v>
+        <v>3.408500133813132e-11</v>
       </c>
     </row>
     <row r="26">
@@ -945,19 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="C26" t="n">
-        <v>1.051892549264534</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.7522629795528255</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2.379830385068324</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.621439541486035</v>
+        <v>2.189772570054414e-11</v>
       </c>
     </row>
     <row r="27">
@@ -965,19 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7957920046900095</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.6554888526504159</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2.136145087452635</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.400431898301764</v>
+        <v>2.548624624835302e-11</v>
       </c>
     </row>
     <row r="28">
@@ -985,19 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6900078062244842</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.6200069000890027</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.850928384420539</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.301488484780719</v>
+        <v>2.150700891340479e-11</v>
       </c>
     </row>
     <row r="29">
@@ -1005,19 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6469036827218616</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5693540918459692</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.714072862211053</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.178706900129112</v>
+        <v>2.826385569606348e-11</v>
       </c>
     </row>
     <row r="30">
@@ -1025,19 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5991909471771986</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.5121599977332331</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.527502160740184</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.095454400899459</v>
+        <v>1.753056927093913e-11</v>
       </c>
     </row>
     <row r="31">
@@ -1045,17 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5737718538821811</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.489940903968738</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="n">
-        <v>1.074577267308229</v>
+        <v>2.394815923460951e-11</v>
       </c>
     </row>
     <row r="32">
@@ -1063,17 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3163976422423135</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.2324375668412738</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
-        <v>0.8653506603828418</v>
+        <v>3.845580336685075e-11</v>
       </c>
     </row>
     <row r="33">
@@ -1081,12 +791,152 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>435</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.496755122653134e-11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>440</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.646114628553961e-11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>445</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.398293883704992e-11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>450</v>
+      </c>
+      <c r="C36" t="n">
+        <v>9.897230688263147e-11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>455</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>7.884911611114828e-10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>460</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.615291628355669e-09</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>465</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.380903566995114e-10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>470</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.961459600565018e-11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>475</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.957113065157879e-11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>480</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.765092670533684e-10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>485</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.035791135482313e-08</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>490</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8.812590402650585e-09</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>495</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.635469086846125e-08</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>500</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/IPCE.xlsx
+++ b/IPCE.xlsx
@@ -453,7 +453,7 @@
         <v>280</v>
       </c>
       <c r="C2" t="n">
-        <v>3.625071445105827e-09</v>
+        <v>8.251732972274621e-08</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>285</v>
       </c>
       <c r="C3" t="n">
-        <v>7.659278712247477e-08</v>
+        <v>9.705166741761229e-08</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         <v>290</v>
       </c>
       <c r="C4" t="n">
-        <v>1.285958867517241e-07</v>
+        <v>1.185672417954314e-07</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>295</v>
       </c>
       <c r="C5" t="n">
-        <v>2.269456803058959e-09</v>
+        <v>1.407129822331053e-07</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
         <v>300</v>
       </c>
       <c r="C6" t="n">
-        <v>7.529423229105764e-08</v>
+        <v>1.61898959917756e-07</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +508,7 @@
         <v>305</v>
       </c>
       <c r="C7" t="n">
-        <v>2.089626213325479e-07</v>
+        <v>1.82178334541559e-07</v>
       </c>
     </row>
     <row r="8">
@@ -519,7 +519,7 @@
         <v>310</v>
       </c>
       <c r="C8" t="n">
-        <v>2.271077667114873e-07</v>
+        <v>1.990958484307748e-07</v>
       </c>
     </row>
     <row r="9">
@@ -530,7 +530,7 @@
         <v>315</v>
       </c>
       <c r="C9" t="n">
-        <v>2.43408914591376e-07</v>
+        <v>2.13305576734652e-07</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         <v>320</v>
       </c>
       <c r="C10" t="n">
-        <v>2.584627079182e-07</v>
+        <v>2.255023671939723e-07</v>
       </c>
     </row>
     <row r="11">
@@ -552,7 +552,7 @@
         <v>325</v>
       </c>
       <c r="C11" t="n">
-        <v>2.711379267401508e-07</v>
+        <v>2.37090033592001e-07</v>
       </c>
     </row>
     <row r="12">
@@ -563,7 +563,7 @@
         <v>330</v>
       </c>
       <c r="C12" t="n">
-        <v>2.82081477453908e-07</v>
+        <v>2.471527249835852e-07</v>
       </c>
     </row>
     <row r="13">
@@ -574,7 +574,7 @@
         <v>335</v>
       </c>
       <c r="C13" t="n">
-        <v>2.949011208137198e-07</v>
+        <v>2.597558533615949e-07</v>
       </c>
     </row>
     <row r="14">
@@ -585,7 +585,7 @@
         <v>340</v>
       </c>
       <c r="C14" t="n">
-        <v>3.090171688882608e-07</v>
+        <v>2.720532606644822e-07</v>
       </c>
     </row>
     <row r="15">
@@ -596,7 +596,7 @@
         <v>345</v>
       </c>
       <c r="C15" t="n">
-        <v>3.203274817325223e-07</v>
+        <v>2.833880326578885e-07</v>
       </c>
     </row>
     <row r="16">
@@ -607,7 +607,7 @@
         <v>350</v>
       </c>
       <c r="C16" t="n">
-        <v>3.167797442865489e-07</v>
+        <v>2.933722870531438e-07</v>
       </c>
     </row>
     <row r="17">
@@ -618,7 +618,7 @@
         <v>355</v>
       </c>
       <c r="C17" t="n">
-        <v>3.360079213319747e-07</v>
+        <v>2.997653465949089e-07</v>
       </c>
     </row>
     <row r="18">
@@ -629,7 +629,7 @@
         <v>360</v>
       </c>
       <c r="C18" t="n">
-        <v>2.356744399872463e-09</v>
+        <v>2.722783820227395e-07</v>
       </c>
     </row>
     <row r="19">
@@ -640,7 +640,7 @@
         <v>365</v>
       </c>
       <c r="C19" t="n">
-        <v>2.455929323271783e-11</v>
+        <v>2.81677698597666e-07</v>
       </c>
     </row>
     <row r="20">
@@ -651,7 +651,7 @@
         <v>370</v>
       </c>
       <c r="C20" t="n">
-        <v>2.916884524379183e-10</v>
+        <v>2.919403680945313e-07</v>
       </c>
     </row>
     <row r="21">
@@ -662,7 +662,7 @@
         <v>375</v>
       </c>
       <c r="C21" t="n">
-        <v>6.178753094375064e-11</v>
+        <v>3.044000992817723e-07</v>
       </c>
     </row>
     <row r="22">
@@ -673,7 +673,7 @@
         <v>380</v>
       </c>
       <c r="C22" t="n">
-        <v>3.087793987239169e-11</v>
+        <v>3.251968433943506e-07</v>
       </c>
     </row>
     <row r="23">
@@ -684,7 +684,7 @@
         <v>385</v>
       </c>
       <c r="C23" t="n">
-        <v>2.563243954638589e-11</v>
+        <v>3.437645354430732e-07</v>
       </c>
     </row>
     <row r="24">
@@ -695,7 +695,7 @@
         <v>390</v>
       </c>
       <c r="C24" t="n">
-        <v>1.931560768332925e-11</v>
+        <v>3.650704479545453e-07</v>
       </c>
     </row>
     <row r="25">
@@ -706,7 +706,7 @@
         <v>395</v>
       </c>
       <c r="C25" t="n">
-        <v>3.408500133813132e-11</v>
+        <v>3.790010585754322e-07</v>
       </c>
     </row>
     <row r="26">
@@ -717,7 +717,7 @@
         <v>400</v>
       </c>
       <c r="C26" t="n">
-        <v>2.189772570054414e-11</v>
+        <v>3.762662081486059e-07</v>
       </c>
     </row>
     <row r="27">
@@ -728,7 +728,7 @@
         <v>405</v>
       </c>
       <c r="C27" t="n">
-        <v>2.548624624835302e-11</v>
+        <v>3.801549132735226e-07</v>
       </c>
     </row>
     <row r="28">
@@ -739,7 +739,7 @@
         <v>410</v>
       </c>
       <c r="C28" t="n">
-        <v>2.150700891340479e-11</v>
+        <v>3.939688137179047e-07</v>
       </c>
     </row>
     <row r="29">
@@ -750,7 +750,7 @@
         <v>415</v>
       </c>
       <c r="C29" t="n">
-        <v>2.826385569606348e-11</v>
+        <v>4.243507989532251e-07</v>
       </c>
     </row>
     <row r="30">
@@ -761,7 +761,7 @@
         <v>420</v>
       </c>
       <c r="C30" t="n">
-        <v>1.753056927093913e-11</v>
+        <v>4.605756188282622e-07</v>
       </c>
     </row>
     <row r="31">
@@ -772,7 +772,7 @@
         <v>425</v>
       </c>
       <c r="C31" t="n">
-        <v>2.394815923460951e-11</v>
+        <v>4.932313488173386e-07</v>
       </c>
     </row>
     <row r="32">
@@ -783,7 +783,7 @@
         <v>430</v>
       </c>
       <c r="C32" t="n">
-        <v>3.845580336685075e-11</v>
+        <v>5.212153903256737e-07</v>
       </c>
     </row>
     <row r="33">
@@ -794,7 +794,7 @@
         <v>435</v>
       </c>
       <c r="C33" t="n">
-        <v>2.496755122653134e-11</v>
+        <v>5.514517806828937e-07</v>
       </c>
     </row>
     <row r="34">
@@ -805,7 +805,7 @@
         <v>440</v>
       </c>
       <c r="C34" t="n">
-        <v>2.646114628553961e-11</v>
+        <v>5.700486675336755e-07</v>
       </c>
     </row>
     <row r="35">
@@ -816,7 +816,7 @@
         <v>445</v>
       </c>
       <c r="C35" t="n">
-        <v>2.398293883704992e-11</v>
+        <v>5.984377646497496e-07</v>
       </c>
     </row>
     <row r="36">
@@ -827,7 +827,7 @@
         <v>450</v>
       </c>
       <c r="C36" t="n">
-        <v>9.897230688263147e-11</v>
+        <v>6.037997378563674e-07</v>
       </c>
     </row>
     <row r="37">
@@ -838,7 +838,7 @@
         <v>455</v>
       </c>
       <c r="C37" t="n">
-        <v>7.884911611114828e-10</v>
+        <v>6.38072851642213e-07</v>
       </c>
     </row>
     <row r="38">
@@ -849,7 +849,7 @@
         <v>460</v>
       </c>
       <c r="C38" t="n">
-        <v>2.615291628355669e-09</v>
+        <v>6.929575532511486e-07</v>
       </c>
     </row>
     <row r="39">
@@ -860,7 +860,7 @@
         <v>465</v>
       </c>
       <c r="C39" t="n">
-        <v>1.380903566995114e-10</v>
+        <v>7.806415955783895e-07</v>
       </c>
     </row>
     <row r="40">
@@ -871,7 +871,7 @@
         <v>470</v>
       </c>
       <c r="C40" t="n">
-        <v>1.961459600565018e-11</v>
+        <v>8.012594202617727e-07</v>
       </c>
     </row>
     <row r="41">
@@ -882,7 +882,7 @@
         <v>475</v>
       </c>
       <c r="C41" t="n">
-        <v>3.957113065157879e-11</v>
+        <v>7.273623547121907e-07</v>
       </c>
     </row>
     <row r="42">
@@ -893,7 +893,7 @@
         <v>480</v>
       </c>
       <c r="C42" t="n">
-        <v>1.765092670533684e-10</v>
+        <v>6.924146253544161e-07</v>
       </c>
     </row>
     <row r="43">
@@ -904,7 +904,7 @@
         <v>485</v>
       </c>
       <c r="C43" t="n">
-        <v>4.035791135482313e-08</v>
+        <v>6.777401519554011e-07</v>
       </c>
     </row>
     <row r="44">
@@ -915,7 +915,7 @@
         <v>490</v>
       </c>
       <c r="C44" t="n">
-        <v>8.812590402650585e-09</v>
+        <v>6.585504241083909e-07</v>
       </c>
     </row>
     <row r="45">
@@ -926,7 +926,7 @@
         <v>495</v>
       </c>
       <c r="C45" t="n">
-        <v>1.635469086846125e-08</v>
+        <v>6.425503708636379e-07</v>
       </c>
     </row>
     <row r="46">
